--- a/biology/Botanique/Udotea/Udotea.xlsx
+++ b/biology/Botanique/Udotea/Udotea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Udotea est un genre d'algues vertes de la famille des Udoteaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'étymologie du nom de genre Udotea n'est pas claire. Il pourrait être la dérivation du latin udo, « humecter, mouiller », udus, « chargé d'eau, humecté ». Certains y voient une origine grecque ύδωρ / ydor, eau[1].
-Littler et Littler (1990) donnent de nombreuses références étymologiques d'épithètes spécifiques de diverses espèces d'Udotea tropicales[2], voir les notes de la section « Liste des espèces ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de genre Udotea n'est pas claire. Il pourrait être la dérivation du latin udo, « humecter, mouiller », udus, « chargé d'eau, humecté ». Certains y voient une origine grecque ύδωρ / ydor, eau.
+Littler et Littler (1990) donnent de nombreuses références étymologiques d'épithètes spécifiques de diverses espèces d'Udotea tropicales, voir les notes de la section « Liste des espèces ».
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (1 mai 2013)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (1 mai 2013) :
 Udotea abbottiorum D.S.Littler &amp; M.M.Littler[note 1]
 Udotea argentea Zanardini
 Udotea caribaea D.S.Littler &amp; M.M.Littler
@@ -580,7 +596,7 @@
 Udotea wilsonii A.Gepp, E.S.Gepp &amp; M.A.Howe
 Udotea xishaensis C.K.Tseng &amp; Dong
 Udotea yamadae Tanaka &amp; Itono
-Selon ITIS      (1 mai 2013)[4] :
+Selon ITIS      (1 mai 2013) :
 Udotea argentea Zanardini, 1858
 Udotea conglutinata
 Udotea cyathiformis
@@ -591,7 +607,7 @@
 Udotea petiolata
 Udotea polychotomis
 Udotea spinulosa Howe
-Selon World Register of Marine Species                               (1 mai 2013)[5] :
+Selon World Register of Marine Species                               (1 mai 2013) :
 Udotea abbottiorum D.S.Littler &amp; M.M.Littler, 1990
 Udotea argentea Zanardini, 1858
 Udotea caribaea D.S.Littler &amp; M.M.Littler, 1990
